--- a/code/数据库设计/城池设计.xlsx
+++ b/code/数据库设计/城池设计.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +18,282 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+  <si>
+    <t>城池名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池粮草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池农业（每年秋季收获）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池金钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池商业（每季度收获）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城防水平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池士兵数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池民忠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池所属的势力ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武威</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濮阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梓潼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅琊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上党</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许昌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钜鹿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上庸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘农</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交趾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合浦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会稽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +301,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +339,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +657,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/数据库设计/城池设计.xlsx
+++ b/code/数据库设计/城池设计.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8326FEB4-6C00-4DEA-884C-AFACEEA001C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$55</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>城池名字</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,10 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>江陵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,18 +97,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>安定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>长沙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>济北</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>武都</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,10 +193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>焦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>邺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>甘陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>上庸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -261,10 +245,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合浦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>会稽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -281,18 +261,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>寒平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>庐江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓟县</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,25 +636,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -696,648 +678,1503 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+      <c r="I31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>1000</v>
+      </c>
+      <c r="I33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>1000</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
+      <c r="I35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>1000</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>1000</v>
+      </c>
+      <c r="I37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>1000</v>
+      </c>
+      <c r="I38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>1000</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>1000</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>1000</v>
+      </c>
+      <c r="I41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>1000</v>
+      </c>
+      <c r="I42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
+      <c r="I44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>1000</v>
+      </c>
+      <c r="I45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
+      </c>
+      <c r="I47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>1000</v>
+      </c>
+      <c r="I48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>1000</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="K50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>1000</v>
+      </c>
+      <c r="I50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>1000</v>
+      </c>
+      <c r="I51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
-      <c r="K52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="K54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="K56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-      <c r="K57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="K58">
-        <v>57</v>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>1000</v>
+      </c>
+      <c r="I52">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J55" xr:uid="{4154AD3B-87E6-4E26-AA8C-A81A51E616F1}">
+    <sortState ref="A2:J55">
+      <sortCondition ref="B1:B55"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>